--- a/Data/aearep-1069/candidatepackages.xlsx
+++ b/Data/aearep-1069/candidatepackages.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -40,30 +34,15 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>pv</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>tr</t>
   </si>
   <si>
@@ -88,27 +67,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1069</t>
-  </si>
-  <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1069/119846/ExtremeToMainstream_Replication</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1069/119846/ExtremeToMainstream_Replication/scripts</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1069/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>0_run_all.do</t>
   </si>
   <si>
@@ -125,9 +89,6 @@
   </si>
   <si>
     <t>5_numbers.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -171,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -179,13 +140,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -193,7 +154,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -205,7 +166,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -217,7 +178,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -229,7 +190,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -241,7 +202,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -253,10 +214,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>158</v>
+        <v>614</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D7"/>
     </row>
@@ -265,10 +226,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>712</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D8"/>
     </row>
@@ -277,10 +238,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>955</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D9"/>
     </row>
@@ -289,10 +250,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>555</v>
+        <v>1975</v>
       </c>
       <c r="C10">
-        <v>0.1840185672044754</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D10"/>
     </row>
@@ -301,10 +262,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>745</v>
+        <v>2416</v>
       </c>
       <c r="C11">
-        <v>0.24701590836048126</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D11"/>
     </row>
@@ -313,10 +274,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1124</v>
+        <v>2436</v>
       </c>
       <c r="C12">
-        <v>0.37267905473709106</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D12"/>
     </row>
@@ -325,96 +286,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1133</v>
+        <v>2752</v>
       </c>
       <c r="C13">
-        <v>0.37566313147544861</v>
+        <v>0.90975207090377808</v>
       </c>
       <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1798</v>
-      </c>
-      <c r="C14">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1817</v>
-      </c>
-      <c r="C15">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1859</v>
-      </c>
-      <c r="C16">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1951</v>
-      </c>
-      <c r="C17">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2357</v>
-      </c>
-      <c r="C18">
-        <v>0.78149867057800293</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2424</v>
-      </c>
-      <c r="C19">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2783</v>
-      </c>
-      <c r="C20">
-        <v>0.92274534702301025</v>
-      </c>
-      <c r="D20"/>
     </row>
   </sheetData>
 </worksheet>
@@ -422,87 +299,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
